--- a/biology/Zoologie/Alvania/Alvania.xlsx
+++ b/biology/Zoologie/Alvania/Alvania.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alvania est un genre de mollusques gastéropodes de la famille des Rissoidae. L'espèce-type est Alvania cimex[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alvania est un genre de mollusques gastéropodes de la famille des Rissoidae. L'espèce-type est Alvania cimex.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre est mis en place par le naturaliste français Antoine Risso en 1826. Depuis sa création, de nombreux taxons sont entrés en synonymie avec Alvania :
 Acinopsis Monterosato, 1884
@@ -550,7 +564,7 @@
 sous-genre Turboella (Thapsiella) P. Fischer, 1885
 sous-genre Turbona (Massotiella) Nordsieck, 1972
 Turbona Leach (in Gray), 1847
-Zacanthusa Leach, 1852[1]
+Zacanthusa Leach, 1852
 </t>
         </is>
       </c>
@@ -579,9 +593,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (30 octobre 2017)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (30 octobre 2017) :
 Alvania aartseni Verduin, 1986
 Alvania abrupta (Dell, 1956)
 Alvania abstersa van der Linden &amp; van Aartsen, 1994
